--- a/Output.xlsx
+++ b/Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bvandusen/DFW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4FF5A44-C3B4-B747-A9BF-7E47241EC7A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D215422E-C9AB-6E49-885E-BFCE17984326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="1680" windowWidth="27340" windowHeight="17040" xr2:uid="{06C43166-B85F-994D-A9D9-33456ED8F604}"/>
+    <workbookView xWindow="1460" yWindow="960" windowWidth="27340" windowHeight="17040" xr2:uid="{06C43166-B85F-994D-A9D9-33456ED8F604}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bvandusen/DFW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D215422E-C9AB-6E49-885E-BFCE17984326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC662257-00FF-BA4A-B435-62EAC62DAA48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="960" windowWidth="27340" windowHeight="17040" xr2:uid="{06C43166-B85F-994D-A9D9-33456ED8F604}"/>
+    <workbookView xWindow="16880" yWindow="4340" windowWidth="20620" windowHeight="20840" activeTab="1" xr2:uid="{06C43166-B85F-994D-A9D9-33456ED8F604}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Intro Phys" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="132">
   <si>
     <t xml:space="preserve">(Intercept)  -0.9480     0.4381  -2.164  0.03074 * </t>
   </si>
@@ -169,6 +171,258 @@
   </si>
   <si>
     <t xml:space="preserve">LA:Female    0.44779    0.60292   0.743   0.4580  </t>
+  </si>
+  <si>
+    <t>(Intercept) -0.73460    0.10007  -7.340 2.54e-13 ***</t>
+  </si>
+  <si>
+    <t>white       -0.50726    0.08049  -6.302 3.25e-10 ***</t>
+  </si>
+  <si>
+    <t>firstgen     0.28983    0.07850   3.692 0.000225 ***</t>
+  </si>
+  <si>
+    <t>Female      -0.49624    0.09945  -4.990 6.29e-07 ***</t>
+  </si>
+  <si>
+    <t>LA          -0.63107    0.14361  -4.394 1.14e-05 ***</t>
+  </si>
+  <si>
+    <t>(Intercept) -0.57885    0.09036  -6.406 1.66e-10 ***</t>
+  </si>
+  <si>
+    <t>white       -0.57792    0.07823  -7.387 1.80e-13 ***</t>
+  </si>
+  <si>
+    <t>Female      -0.48520    0.09943  -4.880 1.10e-06 ***</t>
+  </si>
+  <si>
+    <t>LA          -0.61296    0.14346  -4.273 1.97e-05 ***</t>
+  </si>
+  <si>
+    <t>(Intercept)  -1.0523     0.1008  -10.44   &lt;2e-16 ***</t>
+  </si>
+  <si>
+    <t>Conditional AIC: 2341.705</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>(Intercept)  -0.7804     0.1043  -7.482 1.04e-13 ***</t>
+  </si>
+  <si>
+    <t>LA           -0.7731     0.1809  -4.275 1.99e-05 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional AIC: 2337.848 </t>
+  </si>
+  <si>
+    <t>(Intercept)  -0.8319     0.1074  -7.747 1.40e-14 ***</t>
+  </si>
+  <si>
+    <t>white        -0.5797     0.1067  -5.435 6.06e-08 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional AIC: 2342.688 </t>
+  </si>
+  <si>
+    <t>(Intercept)  -0.9326     0.1238  -7.534 7.06e-14 ***</t>
+  </si>
+  <si>
+    <t>white        -0.5357     0.1098  -4.880 1.14e-06 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen      0.1782     0.1055   1.688   0.0915 .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional AIC: 2343.847 </t>
+  </si>
+  <si>
+    <t>(Intercept)  -0.8268     0.1235  -6.697 2.67e-11 ***</t>
+  </si>
+  <si>
+    <t>white        -0.5577     0.1100  -5.068 4.34e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen      0.1868     0.1056   1.769 0.077031 .  </t>
+  </si>
+  <si>
+    <t>Female       -0.4817     0.1305  -3.691 0.000228 ***</t>
+  </si>
+  <si>
+    <t>Conditional AIC: 2344.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Estimate Std. Error t-value Pr(&gt;|t|)    </t>
+  </si>
+  <si>
+    <t>(Intercept)   -0.7983     0.1247  -6.401 1.87e-10 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen       0.1866     0.1056   1.766 0.077463 .  </t>
+  </si>
+  <si>
+    <t>Female        -0.6106     0.1595  -3.829 0.000132 ***</t>
+  </si>
+  <si>
+    <t>white         -0.6351     0.1227  -5.177 2.46e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female:white   0.3835     0.2626   1.461 0.144288    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional AIC: 2344.987 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       Estimate Std. Error t-value Pr(&gt;|t|)    </t>
+  </si>
+  <si>
+    <t>(Intercept)           -0.698273   0.135159  -5.166 2.60e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen               0.007799   0.145166   0.054  0.95716    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female                -0.725225   0.251408  -2.885  0.00396 ** </t>
+  </si>
+  <si>
+    <t>white                 -0.837333   0.160737  -5.209 2.07e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen:Female        0.203786   0.318781   0.639  0.52271    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen:white         0.484991   0.247579   1.959  0.05024 .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female:white           0.565750   0.367790   1.538  0.12413    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen:Female:white -0.415095   0.540342  -0.768  0.44244    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional AIC: 2347.825 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Estimate Std. Error t-value Pr(&gt;|t|)    </t>
+  </si>
+  <si>
+    <t>(Intercept)           -0.46569    0.13697  -3.400 0.000685 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen               0.03075    0.14533   0.212 0.832465    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female                -0.69328    0.25131  -2.759 0.005850 ** </t>
+  </si>
+  <si>
+    <t>white                 -0.82192    0.16068  -5.115  3.4e-07 ***</t>
+  </si>
+  <si>
+    <t>LA                    -0.71657    0.17941  -3.994  6.7e-05 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen:Female        0.20409    0.31888   0.640 0.522219    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen:white         0.46843    0.24760   1.892 0.058632 .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female:white           0.55820    0.36795   1.517 0.129387    </t>
+  </si>
+  <si>
+    <t>firstgen:Female:white -0.40579    0.54059  -0.751 0.452939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional AIC: 2344.394 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Estimate Std. Error t-value Pr(&gt;|t|)    </t>
+  </si>
+  <si>
+    <t>(Intercept)  -0.5870     0.1255  -4.679 3.05e-06 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen      0.2048     0.1057   1.937  0.05282 .  </t>
+  </si>
+  <si>
+    <t>Female       -0.4510     0.1304  -3.460  0.00055 ***</t>
+  </si>
+  <si>
+    <t>white        -0.5499     0.1100  -5.001 6.12e-07 ***</t>
+  </si>
+  <si>
+    <t>LA           -0.7277     0.1797  -4.049 5.31e-05 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional AIC: 2340.503 </t>
+  </si>
+  <si>
+    <t>(Intercept)  -0.4870     0.1332  -3.657 0.000261 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen      0.0418     0.1288   0.325 0.745554    </t>
+  </si>
+  <si>
+    <t>LA           -1.1114     0.2544  -4.370 1.30e-05 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female       -0.3797     0.1718  -2.211 0.027169 *  </t>
+  </si>
+  <si>
+    <t>white        -0.6595     0.1342  -4.913 9.59e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen:LA   0.5341     0.2299   2.323 0.020280 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA:Female    -0.1641     0.2638  -0.622 0.533833    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA:white      0.3771     0.2351   1.604 0.108868    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional AIC: 2343.295 </t>
+  </si>
+  <si>
+    <t>(Intercept)  -0.7223     0.1076  -6.716 2.36e-11 ***</t>
+  </si>
+  <si>
+    <t>white        -0.6037     0.1070  -5.645 1.86e-08 ***</t>
+  </si>
+  <si>
+    <t>Female       -0.4767     0.1304  -3.655 0.000263 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional AIC: 2342.879 </t>
+  </si>
+  <si>
+    <t>(Intercept)  -1.1465     0.1414  -8.106 8.47e-16 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen      0.0418     0.1288   0.325  0.74555    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA           -0.7343     0.2481  -2.960  0.00311 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female       -0.3797     0.1718  -2.211  0.02717 *  </t>
+  </si>
+  <si>
+    <t>nonwhite      0.6595     0.1342   4.913 9.59e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstgen:LA   0.5341     0.2299   2.323  0.02028 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA:Female    -0.1641     0.2638  -0.622  0.53383    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA:nonwhite  -0.3771     0.2351  -1.604  0.10887   </t>
+  </si>
+  <si>
+    <t>Conditional AIC: 2343.295</t>
   </si>
 </sst>
 </file>
@@ -527,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A02BDEA-BEE7-6E40-8DB3-252195D26E7B}">
-  <dimension ref="B2:I38"/>
+  <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,34 +982,513 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="I35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="I36" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="I37" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9B2716-DBB4-FB4D-8E6A-5D381B869C0A}">
+  <dimension ref="A3:I82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:G82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1.5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
